--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,36 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>us-core-treatment-intervention-preference-bindings</t>
+  </si>
+  <si>
+    <t>US Core Treatment Intervention Preference Bindings Profile</t>
+  </si>
+  <si>
+    <t>null#treatment-intervention-preference</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#75773-2</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>stringĵ, CodeableConceptĵ, Quantityĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>us-core-treatment-intervention-preference-grouping</t>
+  </si>
+  <si>
+    <t>US Core Treatment Intervention Preference Grouping Profile</t>
   </si>
 </sst>
 </file>
@@ -178,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +249,76 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>Profile</t>
   </si>
@@ -47,16 +47,43 @@
     <t>Method</t>
   </si>
   <si>
+    <t>us-core-average-blood-pressure</t>
+  </si>
+  <si>
+    <t>US Core Average Blood Pressure Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#96607-7</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>LOINC#96608-5</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>LOINC#96609-3</t>
+  </si>
+  <si>
     <t>us-core-treatment-intervention-preference-bindings</t>
   </si>
   <si>
     <t>US Core Treatment Intervention Preference Bindings Profile</t>
   </si>
   <si>
-    <t>null#treatment-intervention-preference</t>
-  </si>
-  <si>
-    <t/>
+    <t>US Core Category#treatment-intervention-preference</t>
   </si>
   <si>
     <t>LOINC#75773-2</t>
@@ -66,9 +93,6 @@
   </si>
   <si>
     <t>stringĵ, CodeableConceptĵ, Quantityĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>us-core-treatment-intervention-preference-grouping</t>
@@ -208,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -272,10 +296,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -286,36 +310,141 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -71,7 +71,7 @@
     <t>LOINC#96608-5</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+    <t>Quantityĵ</t>
   </si>
   <si>
     <t>LOINC#96609-3</t>
